--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NH.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>STATE</t>
   </si>
@@ -44,190 +44,196 @@
     <t>5X The Cash!</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>2X</t>
+  </si>
+  <si>
+    <t>$50 Frenzy</t>
+  </si>
+  <si>
+    <t>Mad Money</t>
+  </si>
+  <si>
+    <t>Wonder Bucks</t>
+  </si>
+  <si>
+    <t>Double Doubler</t>
+  </si>
+  <si>
+    <t>Great 8's</t>
+  </si>
+  <si>
+    <t>Holiday Cheer</t>
+  </si>
+  <si>
+    <t>Silver Dollar</t>
+  </si>
+  <si>
+    <t>Lobster Luck</t>
+  </si>
+  <si>
+    <t>Blazing 7's</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>Loose Change</t>
+  </si>
+  <si>
+    <t>Super 9s</t>
+  </si>
+  <si>
+    <t>$2.00 Games</t>
+  </si>
+  <si>
+    <t>Hot $</t>
+  </si>
+  <si>
+    <t>Lucky Green Doubler</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>Tabby Tinsel Tripler</t>
+  </si>
+  <si>
+    <t>It Takes 2</t>
+  </si>
+  <si>
+    <t>Holiday Bonus</t>
+  </si>
+  <si>
+    <t>Cash Boom</t>
+  </si>
+  <si>
+    <t>Blackjack Tripler</t>
+  </si>
+  <si>
+    <t>$100 Frenzy</t>
+  </si>
+  <si>
+    <t>Triple Jackpot Bonus</t>
+  </si>
+  <si>
+    <t>4 Way Cash</t>
+  </si>
+  <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>Money Bags</t>
+  </si>
+  <si>
+    <t>$3.00 Games</t>
+  </si>
+  <si>
+    <t>Gold Fish®</t>
+  </si>
+  <si>
+    <t>$50,000 Poker</t>
+  </si>
+  <si>
+    <t>Frogger</t>
+  </si>
+  <si>
+    <t>2019-03-08</t>
+  </si>
+  <si>
+    <t>Money Puzzle®</t>
+  </si>
+  <si>
+    <t>Block-O Bingo</t>
+  </si>
+  <si>
+    <t>$5.00 Games</t>
+  </si>
+  <si>
+    <t>Red Hot &amp; Wild 7's</t>
+  </si>
+  <si>
+    <t>Win It All</t>
+  </si>
+  <si>
+    <t>Black and Gold</t>
+  </si>
+  <si>
+    <t>All About The Bens</t>
+  </si>
+  <si>
+    <t>$200 Frenzy</t>
+  </si>
+  <si>
+    <t>Patriots™</t>
+  </si>
+  <si>
+    <t>Payout Doubler</t>
+  </si>
+  <si>
+    <t>Fab 4</t>
+  </si>
+  <si>
+    <t>Power 5's</t>
+  </si>
+  <si>
+    <t>Double Match</t>
+  </si>
+  <si>
+    <t>Holiday Lucky X10</t>
+  </si>
+  <si>
+    <t>Cashword Connect</t>
+  </si>
+  <si>
+    <t>$10.00 Games</t>
+  </si>
+  <si>
+    <t>Ultimate Vegas Getaway</t>
+  </si>
+  <si>
+    <t>Emerald 9's</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Cash In A Flash</t>
+  </si>
+  <si>
+    <t>Lady Luck</t>
+  </si>
+  <si>
+    <t>$500,000 Fortune</t>
+  </si>
+  <si>
+    <t>Diamond Dazzler</t>
+  </si>
+  <si>
+    <t>Win Big</t>
+  </si>
+  <si>
+    <t>$50 Or $100 Series II</t>
+  </si>
+  <si>
+    <t>$50 Or $100</t>
+  </si>
+  <si>
+    <t>Hit The Jackpot</t>
+  </si>
+  <si>
+    <t>$20.00 Games</t>
+  </si>
+  <si>
+    <t>Mega Cash</t>
+  </si>
+  <si>
+    <t>Double Diamond Spectacular</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
-  </si>
-  <si>
-    <t>2X</t>
-  </si>
-  <si>
-    <t>$50 Frenzy</t>
-  </si>
-  <si>
-    <t>Mad Money</t>
-  </si>
-  <si>
-    <t>Wonder Bucks</t>
-  </si>
-  <si>
-    <t>Double Doubler</t>
-  </si>
-  <si>
-    <t>Great 8's</t>
-  </si>
-  <si>
-    <t>Lobster Luck</t>
-  </si>
-  <si>
-    <t>Holiday Cheer</t>
-  </si>
-  <si>
-    <t>Silver Dollar</t>
-  </si>
-  <si>
-    <t>Blazing 7's</t>
-  </si>
-  <si>
-    <t>2019-03-01</t>
-  </si>
-  <si>
-    <t>Loose Change</t>
-  </si>
-  <si>
-    <t>Super 9s</t>
-  </si>
-  <si>
-    <t>$2.00 Games</t>
-  </si>
-  <si>
-    <t>Hot $</t>
-  </si>
-  <si>
-    <t>Lucky Green Doubler</t>
-  </si>
-  <si>
-    <t>Halloween</t>
-  </si>
-  <si>
-    <t>Tabby Tinsel Tripler</t>
-  </si>
-  <si>
-    <t>It Takes 2</t>
-  </si>
-  <si>
-    <t>Cash Boom</t>
-  </si>
-  <si>
-    <t>Holiday Bonus</t>
-  </si>
-  <si>
-    <t>$100 Frenzy</t>
-  </si>
-  <si>
-    <t>Blackjack Tripler</t>
-  </si>
-  <si>
-    <t>Money Bags</t>
-  </si>
-  <si>
-    <t>4 Way Cash</t>
-  </si>
-  <si>
-    <t>Triple Jackpot Bonus</t>
-  </si>
-  <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
-    <t>$3.00 Games</t>
-  </si>
-  <si>
-    <t>Gold Fish®</t>
-  </si>
-  <si>
-    <t>$50,000 Poker</t>
-  </si>
-  <si>
-    <t>Frogger</t>
-  </si>
-  <si>
-    <t>Money Puzzle®</t>
-  </si>
-  <si>
-    <t>Block-O Bingo</t>
-  </si>
-  <si>
-    <t>$5.00 Games</t>
-  </si>
-  <si>
-    <t>Red Hot &amp; Wild 7's</t>
-  </si>
-  <si>
-    <t>Win It All</t>
-  </si>
-  <si>
-    <t>Black and Gold</t>
-  </si>
-  <si>
-    <t>Double Match</t>
-  </si>
-  <si>
-    <t>All About The Bens</t>
-  </si>
-  <si>
-    <t>$200 Frenzy</t>
-  </si>
-  <si>
-    <t>Patriots™</t>
-  </si>
-  <si>
-    <t>Payout Doubler</t>
-  </si>
-  <si>
-    <t>Power 5's</t>
-  </si>
-  <si>
-    <t>Fab 4</t>
-  </si>
-  <si>
-    <t>Holiday Lucky X10</t>
-  </si>
-  <si>
-    <t>Cashword Connect</t>
-  </si>
-  <si>
-    <t>$10.00 Games</t>
-  </si>
-  <si>
-    <t>Ultimate Vegas Getaway</t>
-  </si>
-  <si>
-    <t>Emerald 9's</t>
-  </si>
-  <si>
-    <t>Hit The Jackpot</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Cash In A Flash</t>
-  </si>
-  <si>
-    <t>Lady Luck</t>
-  </si>
-  <si>
-    <t>$500,000 Fortune</t>
-  </si>
-  <si>
-    <t>Diamond Dazzler</t>
-  </si>
-  <si>
-    <t>Win Big</t>
-  </si>
-  <si>
-    <t>$50 Or $100 Series II</t>
-  </si>
-  <si>
-    <t>$50 Or $100</t>
-  </si>
-  <si>
-    <t>$20.00 Games</t>
-  </si>
-  <si>
-    <t>Mega Cash</t>
-  </si>
-  <si>
-    <t>Double Diamond Spectacular</t>
   </si>
   <si>
     <t>$25.00 Games</t>
@@ -654,7 +660,7 @@
         <v>1369</v>
       </c>
       <c r="E4">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -674,7 +680,7 @@
         <v>1357</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -694,7 +700,7 @@
         <v>1366</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -707,14 +713,14 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>603</v>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>1409</v>
+        <v>1375</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -727,14 +733,14 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8">
+        <v>603</v>
       </c>
       <c r="D8">
-        <v>1375</v>
+        <v>1409</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -754,7 +760,7 @@
         <v>1419</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -771,10 +777,10 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>1390</v>
+        <v>1412</v>
       </c>
       <c r="E10">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -791,10 +797,10 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -811,10 +817,10 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="E12">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -874,7 +880,7 @@
         <v>1392</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -991,10 +997,10 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>1397</v>
+        <v>1413</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1011,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1031,10 +1037,10 @@
         <v>31</v>
       </c>
       <c r="D23">
-        <v>1370</v>
+        <v>1420</v>
       </c>
       <c r="E23">
-        <v>422</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1051,10 +1057,10 @@
         <v>32</v>
       </c>
       <c r="D24">
-        <v>1420</v>
+        <v>1370</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1071,10 +1077,10 @@
         <v>33</v>
       </c>
       <c r="D25">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1111,10 +1117,10 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1131,10 +1137,10 @@
         <v>36</v>
       </c>
       <c r="D28">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1197,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1208,7 +1214,7 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>1404</v>
@@ -1228,7 +1234,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>1393</v>
@@ -1245,10 +1251,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>1245</v>
@@ -1265,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>1399</v>
@@ -1285,10 +1291,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>1373</v>
@@ -1305,19 +1311,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1325,16 +1331,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1345,16 +1351,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39">
-        <v>777</v>
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>1416</v>
+        <v>1396</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1365,16 +1371,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>1371</v>
+        <v>1403</v>
       </c>
       <c r="E40">
-        <v>379</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1385,16 +1391,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D41">
-        <v>1396</v>
+        <v>1417</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1405,16 +1411,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1425,19 +1431,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1445,16 +1451,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1465,16 +1471,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>777</v>
       </c>
       <c r="D45">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1485,10 +1491,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>1411</v>
@@ -1505,10 +1511,10 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>1334</v>
@@ -1525,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>1374</v>
@@ -1545,16 +1551,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>1407</v>
+        <v>1325</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1565,16 +1571,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50">
-        <v>1325</v>
+        <v>1400</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1585,13 +1591,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>1400</v>
+        <v>1381</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1605,16 +1611,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>1381</v>
+        <v>1291</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1625,16 +1631,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>1291</v>
+        <v>1415</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1645,16 +1651,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D54">
-        <v>1415</v>
+        <v>1368</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1665,16 +1671,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55">
-        <v>1368</v>
+        <v>1423</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>34743</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1685,16 +1691,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D56">
-        <v>1423</v>
+        <v>1384</v>
       </c>
       <c r="E56">
-        <v>36517</v>
+        <v>578</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1705,16 +1711,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D57">
-        <v>1384</v>
+        <v>1407</v>
       </c>
       <c r="E57">
-        <v>590</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1725,10 +1731,10 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D58">
         <v>1312</v>
@@ -1745,10 +1751,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D59">
         <v>1297</v>
@@ -1757,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1765,10 +1771,10 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>1395</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NH.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>5X The Cash!</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>2X</t>
@@ -74,15 +74,6 @@
     <t>Lobster Luck</t>
   </si>
   <si>
-    <t>Blazing 7's</t>
-  </si>
-  <si>
-    <t>2019-03-01</t>
-  </si>
-  <si>
-    <t>Loose Change</t>
-  </si>
-  <si>
     <t>Super 9s</t>
   </si>
   <si>
@@ -98,30 +89,30 @@
     <t>Halloween</t>
   </si>
   <si>
+    <t>It Takes 2</t>
+  </si>
+  <si>
+    <t>Holiday Bonus</t>
+  </si>
+  <si>
     <t>Tabby Tinsel Tripler</t>
   </si>
   <si>
-    <t>It Takes 2</t>
-  </si>
-  <si>
-    <t>Holiday Bonus</t>
-  </si>
-  <si>
     <t>Cash Boom</t>
   </si>
   <si>
+    <t>$100 Frenzy</t>
+  </si>
+  <si>
+    <t>Super 7-11-21</t>
+  </si>
+  <si>
+    <t>4 Way Cash</t>
+  </si>
+  <si>
     <t>Blackjack Tripler</t>
   </si>
   <si>
-    <t>$100 Frenzy</t>
-  </si>
-  <si>
-    <t>Triple Jackpot Bonus</t>
-  </si>
-  <si>
-    <t>4 Way Cash</t>
-  </si>
-  <si>
     <t>Lucky 13</t>
   </si>
   <si>
@@ -137,55 +128,55 @@
     <t>$50,000 Poker</t>
   </si>
   <si>
-    <t>Frogger</t>
-  </si>
-  <si>
-    <t>2019-03-08</t>
+    <t>Block-O Bingo</t>
   </si>
   <si>
     <t>Money Puzzle®</t>
   </si>
   <si>
-    <t>Block-O Bingo</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
-    <t>Red Hot &amp; Wild 7's</t>
+    <t>Black and Gold</t>
+  </si>
+  <si>
+    <t>All About The Bens</t>
+  </si>
+  <si>
+    <t>Fab 4</t>
+  </si>
+  <si>
+    <t>$200 Frenzy</t>
+  </si>
+  <si>
+    <t>Boston Red Sox™ 2018 World Series Championship™</t>
+  </si>
+  <si>
+    <t>Payout Doubler</t>
+  </si>
+  <si>
+    <t>Holiday Lucky X10</t>
+  </si>
+  <si>
+    <t>Cashword Connect</t>
+  </si>
+  <si>
+    <t>Power 5's</t>
+  </si>
+  <si>
+    <t>2019-03-29</t>
+  </si>
+  <si>
+    <t>Patriots™</t>
+  </si>
+  <si>
+    <t>2019-03-22</t>
   </si>
   <si>
     <t>Win It All</t>
   </si>
   <si>
-    <t>Black and Gold</t>
-  </si>
-  <si>
-    <t>All About The Bens</t>
-  </si>
-  <si>
-    <t>$200 Frenzy</t>
-  </si>
-  <si>
-    <t>Patriots™</t>
-  </si>
-  <si>
-    <t>Payout Doubler</t>
-  </si>
-  <si>
-    <t>Fab 4</t>
-  </si>
-  <si>
-    <t>Power 5's</t>
-  </si>
-  <si>
-    <t>Double Match</t>
-  </si>
-  <si>
-    <t>Holiday Lucky X10</t>
-  </si>
-  <si>
-    <t>Cashword Connect</t>
+    <t>2019-03-16</t>
   </si>
   <si>
     <t>$10.00 Games</t>
@@ -197,33 +188,30 @@
     <t>Emerald 9's</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>Cash In A Flash</t>
   </si>
   <si>
+    <t>$500,000 Fortune</t>
+  </si>
+  <si>
+    <t>Hit The Jackpot</t>
+  </si>
+  <si>
+    <t>Win Big</t>
+  </si>
+  <si>
+    <t>$50 Or $100 Series II</t>
+  </si>
+  <si>
+    <t>$50 Or $100</t>
+  </si>
+  <si>
+    <t>Diamond Dazzler</t>
+  </si>
+  <si>
     <t>Lady Luck</t>
   </si>
   <si>
-    <t>$500,000 Fortune</t>
-  </si>
-  <si>
-    <t>Diamond Dazzler</t>
-  </si>
-  <si>
-    <t>Win Big</t>
-  </si>
-  <si>
-    <t>$50 Or $100 Series II</t>
-  </si>
-  <si>
-    <t>$50 Or $100</t>
-  </si>
-  <si>
-    <t>Hit The Jackpot</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -233,7 +221,7 @@
     <t>Double Diamond Spectacular</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>My Million Dollar Series</t>
   </si>
   <si>
     <t>$25.00 Games</t>
@@ -578,7 +566,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +628,7 @@
         <v>1387</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -660,7 +648,7 @@
         <v>1369</v>
       </c>
       <c r="E4">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -680,7 +668,7 @@
         <v>1357</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -700,7 +688,7 @@
         <v>1366</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -740,7 +728,7 @@
         <v>1409</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -760,7 +748,7 @@
         <v>1419</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -800,7 +788,7 @@
         <v>1402</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -820,7 +808,7 @@
         <v>1390</v>
       </c>
       <c r="E12">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -837,13 +825,13 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>1351</v>
+        <v>1392</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -851,19 +839,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -871,16 +859,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1392</v>
+        <v>1372</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -891,13 +879,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
       <c r="D16">
-        <v>1349</v>
+        <v>1398</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -911,13 +899,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>1372</v>
+        <v>1385</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -931,16 +919,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>1398</v>
+        <v>1413</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -951,10 +939,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1363</v>
@@ -971,13 +959,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -991,16 +979,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>1413</v>
+        <v>1370</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1011,16 +999,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>1397</v>
+        <v>1427</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1031,16 +1019,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1051,16 +1039,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>1370</v>
+        <v>1420</v>
       </c>
       <c r="E24">
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1071,16 +1059,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1091,16 +1079,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1111,16 +1099,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>1408</v>
+        <v>1377</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1131,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1151,16 +1139,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
       <c r="D29">
-        <v>1377</v>
+        <v>1393</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1171,16 +1159,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1191,19 +1179,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31">
-        <v>1360</v>
+        <v>1373</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1211,16 +1199,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>1404</v>
+        <v>1379</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1231,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>1393</v>
+        <v>1417</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1251,19 +1239,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>1245</v>
+        <v>1371</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>329</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1271,16 +1259,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
       <c r="D35">
-        <v>1399</v>
+        <v>1421</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1291,16 +1279,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>1373</v>
+        <v>1403</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1311,13 +1299,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>1379</v>
+        <v>1414</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1331,16 +1319,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>1371</v>
+        <v>1411</v>
       </c>
       <c r="E38">
-        <v>369</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1351,13 +1339,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>777</v>
       </c>
       <c r="D39">
-        <v>1396</v>
+        <v>1416</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1371,19 +1359,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1391,19 +1379,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1411,19 +1399,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>1399</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>53</v>
-      </c>
-      <c r="D42">
-        <v>1391</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1431,19 +1419,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
-        <v>1380</v>
+        <v>1334</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1451,13 +1439,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>1414</v>
+        <v>1374</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1471,13 +1459,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>777</v>
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
       </c>
       <c r="D45">
-        <v>1416</v>
+        <v>1400</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1491,16 +1479,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D46">
-        <v>1411</v>
+        <v>1291</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1511,13 +1499,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
-        <v>1334</v>
+        <v>1407</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1531,13 +1519,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1551,16 +1539,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49">
-        <v>1325</v>
+        <v>1423</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>27824</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1571,16 +1559,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>549</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1591,13 +1579,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D51">
-        <v>1381</v>
+        <v>1415</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1611,13 +1599,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52">
-        <v>1291</v>
+        <v>1381</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1631,16 +1619,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D53">
-        <v>1415</v>
+        <v>1312</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1651,16 +1639,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>1368</v>
+        <v>1297</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1671,16 +1659,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D55">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E55">
-        <v>34743</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1691,98 +1679,18 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D56">
-        <v>1384</v>
+        <v>1395</v>
       </c>
       <c r="E56">
-        <v>578</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57">
-        <v>1407</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58">
-        <v>1312</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59">
-        <v>1297</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60">
-        <v>1395</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
         <v>9</v>
       </c>
     </row>
